--- a/HomeWork/泰职作业情况.xlsx
+++ b/HomeWork/泰职作业情况.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="195" windowWidth="19395" windowHeight="7290"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="55">
   <si>
     <t>泰州职业技术学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,14 +177,30 @@
   </si>
   <si>
     <t>day08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二阶段（2019-3-31）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +261,14 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -260,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,6 +307,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -293,7 +354,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +383,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,7 +442,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -389,14 +465,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -414,7 +490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,6 +564,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -522,6 +599,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -697,41 +775,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="9" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1"/>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:16" ht="36" customHeight="1"/>
+    <row r="2" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
@@ -759,8 +852,29 @@
       <c r="I3" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="21.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -780,8 +894,15 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="21.95" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -809,8 +930,29 @@
       <c r="I5" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="21.95" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -838,8 +980,15 @@
       <c r="I6" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="21.95" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -859,8 +1008,15 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="21.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -888,8 +1044,15 @@
       <c r="I8" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="21.95" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -917,8 +1080,17 @@
       <c r="I9" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="21.95" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -946,8 +1118,29 @@
       <c r="I10" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="21.95" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1168,17 @@
       <c r="I11" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" ht="21.95" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1002,8 +1204,15 @@
       <c r="I12" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="21.95" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1031,8 +1240,29 @@
       <c r="I13" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1060,8 +1290,15 @@
       <c r="I14" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="21.95" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1089,8 +1326,29 @@
       <c r="I15" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="21.95" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1114,8 +1372,15 @@
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" ht="21.95" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1143,8 +1408,15 @@
       <c r="I17" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="21.95" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1172,8 +1444,29 @@
       <c r="I18" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="21.95" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1199,8 +1492,17 @@
         <v>42</v>
       </c>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" ht="21.95" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1212,8 +1514,15 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" ht="21.95" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1241,8 +1550,29 @@
       <c r="I21" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="21.95" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1268,8 +1598,17 @@
         <v>42</v>
       </c>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J22" s="4"/>
+      <c r="K22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" ht="21.95" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1297,8 +1636,29 @@
       <c r="I23" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="21.95" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1326,8 +1686,29 @@
       <c r="I24" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="21.95" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,8 +1736,21 @@
       <c r="I25" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="21.95" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -1384,8 +1778,15 @@
       <c r="I26" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="21.95" customHeight="1">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" ht="21.95" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,8 +1814,25 @@
       <c r="I27" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="24.75" customHeight="1">
+      <c r="J27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="24.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,8 +1860,29 @@
       <c r="I28" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75">
+      <c r="J28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1471,8 +1910,29 @@
       <c r="I29" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75">
+      <c r="J29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -1500,8 +1960,23 @@
       <c r="I30" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="18.75">
+      <c r="J30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1521,8 +1996,21 @@
         <v>42</v>
       </c>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75">
+      <c r="J31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1534,8 +2022,15 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1563,8 +2058,15 @@
       <c r="I33" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="18.75">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" ht="18.75">
       <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,8 +2094,23 @@
       <c r="I34" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="18.75">
+      <c r="J34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1619,8 +2136,15 @@
       <c r="I35" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="18.75">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1648,8 +2172,29 @@
       <c r="I36" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="18.75">
+      <c r="J36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1661,8 +2206,15 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.75">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1690,8 +2242,25 @@
       <c r="I38" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="18.75">
+      <c r="J38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" ht="18.75">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
@@ -1719,8 +2288,23 @@
       <c r="I39" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="18.75">
+      <c r="J39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1748,8 +2332,29 @@
       <c r="I40" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="18.75">
+      <c r="J40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -1777,8 +2382,15 @@
       <c r="I41" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="18.75">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" ht="18.75">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1806,13 +2418,26 @@
       <c r="I42" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="J42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A4:A42">
     <sortCondition ref="A4:A42"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
